--- a/medicine/Pharmacie/Céfadroxil/Céfadroxil.xlsx
+++ b/medicine/Pharmacie/Céfadroxil/Céfadroxil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9fadroxil</t>
+          <t>Céfadroxil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le céphadroxil est une molécule antibiotique bêta-lactamine de la classe des céphalosporines utilisé pour combattre les infections chez l'homme ou chez l'animal.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9fadroxil</t>
+          <t>Céfadroxil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le céphadroxil inhibe la PLP, enzyme permettant la synthèse du peptidoglycane bactérien.
-Il produit son plein effet après quelques jours[4].
+Il produit son plein effet après quelques jours.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9fadroxil</t>
+          <t>Céfadroxil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Utilisation thérapeutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Antibiotiques de première intention utilisés dans :
 infection staphylococciques diverses ;
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9fadroxil</t>
+          <t>Céfadroxil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires les plus courants du céfadroxil sont la diarrhée (qui, moins fréquemment, peut être sanglante), les nausées, les maux d'estomac et les vomissements. D'autres effets secondaires[5] incluent des éruptions cutanées, de l'urticaire et des démangeaisons.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires les plus courants du céfadroxil sont la diarrhée (qui, moins fréquemment, peut être sanglante), les nausées, les maux d'estomac et les vomissements. D'autres effets secondaires incluent des éruptions cutanées, de l'urticaire et des démangeaisons.
 </t>
         </is>
       </c>
